--- a/biology/Botanique/Vernis_Martin/Vernis_Martin.xlsx
+++ b/biology/Botanique/Vernis_Martin/Vernis_Martin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1728, les frères Martin de Paris mettent au point une imitation de laque à base de copal, le vernis Martin, destiné à concurrencer les laques de Chine et du Japon. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce vernis, moins coûteux pour le décor de mobilier que l'application de panneaux de laques, servit aussi à harmoniser des meubles avec un galbe important, les panneaux de laque ne supportant pas d'être trop arrondis. Le vernis Martin créait le raccord entre ces panneaux afin que le meuble soit visuellement homogène.
 Il eut toutefois son existence propre en reproduisant et interprétant des œuvres de peintres de l'époque appliquées sur les meubles en guise de décor. Le vernis Martin fut également utilisé au XIXe siècle sur le mobilier de style. Son gros défaut est d'être fragile à l'eau.
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mathieu Criaerd (1689-1776, Maître en 1738) reçoit la commande en 1742 du Marchand Hébert pour Madame de Mailly, d'une commode, une encoignure et une table à écrire en bleu et blanc. Il ne reste que la commode et le bas de l'encoignure (Louvre).</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Exposition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2014 : "Les secrets de la laque française. Le vernis Martin", Paris, Musée des arts décoratifs, 13 février-8 juin</t>
         </is>
